--- a/Template/Template Ujian.xlsx
+++ b/Template/Template Ujian.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AppProject\Web\Admin Ujian\login-page\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AppProject\Web\Admin Ujian\Admin Ujian\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1E2CE8-166B-438E-902D-7E09F1177CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9818BAA2-37AA-47AC-A2A9-32451129EE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,9 +46,6 @@
     <t>KODE MASUK</t>
   </si>
   <si>
-    <t>KODE KELUAR</t>
-  </si>
-  <si>
     <t>AKTIF</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>https://url-google-form</t>
+  </si>
+  <si>
+    <t>KODE RESET</t>
   </si>
 </sst>
 </file>
@@ -361,8 +361,8 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -392,7 +392,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>4</v>
@@ -407,15 +407,15 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C2" s="2">
         <v>45292</v>
@@ -427,13 +427,13 @@
         <v>300</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I2" s="1">
         <v>1111</v>
